--- a/RealProject/src/main/webapp/WEB-INF/excel/reservation.xlsx
+++ b/RealProject/src/main/webapp/WEB-INF/excel/reservation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="48">
   <si>
     <t>&lt;jx:forEach var="item" items="${list}" varStatus="status"&gt;</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>&lt;jx:if test="${item.menu_name7 !='' &amp;&amp; item.menu_name8 != ''}" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:if test = "${not empty list}"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:if test = "${empty list}"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 내역이 존재하지 않습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,6 +283,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -573,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E4:R33"/>
+  <dimension ref="E4:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -599,21 +614,21 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:18">
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="7" spans="5:18">
       <c r="E7" s="7" t="s">
@@ -658,25 +673,13 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="5:18">
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="5:18">
+      <c r="E9" s="7" t="s">
         <v>0</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="5:18">
-      <c r="E9" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -692,66 +695,66 @@
       <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="5:18">
-      <c r="E10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="5:18">
       <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="5:18">
+      <c r="E12" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="5:18">
-      <c r="E12" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -767,66 +770,66 @@
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="5:18">
-      <c r="E13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="5:18">
       <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18">
+      <c r="E15" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="5:18">
-      <c r="E15" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -842,358 +845,408 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="5:18">
-      <c r="E16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="5:17">
       <c r="E17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17">
+      <c r="E18" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="5:17">
-      <c r="E18" s="10" t="s">
+    <row r="19" spans="5:17">
+      <c r="E19" s="10" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17">
-      <c r="E19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="5:17">
       <c r="E20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17">
+      <c r="E21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="5:17">
-      <c r="E21" s="10" t="s">
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="5:17">
+      <c r="E22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="5:17">
-      <c r="E22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="5:17">
       <c r="E23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17">
+      <c r="E24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="5:17">
-      <c r="E24" s="10" t="s">
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="5:17">
+      <c r="E25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="5:17">
-      <c r="E25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" spans="5:17">
       <c r="E26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17">
+      <c r="E27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="5:17">
-      <c r="E27" s="10" t="s">
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="5:17">
+      <c r="E28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="5:17">
-      <c r="E28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
     <row r="29" spans="5:17">
       <c r="E29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17">
+      <c r="E30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="5:17">
-      <c r="E30" s="10" t="s">
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="5:17">
+      <c r="E31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="5:17">
-      <c r="E31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" spans="5:17">
       <c r="E32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17">
+      <c r="E33" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="5:13">
-      <c r="E33" s="7" t="s">
+    <row r="34" spans="5:17">
+      <c r="E34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="5:17">
+      <c r="E35" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17">
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17">
+      <c r="E37" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="5:17">
+      <c r="E38" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="E37:Q37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RealProject/src/main/webapp/WEB-INF/excel/reservation.xlsx
+++ b/RealProject/src/main/webapp/WEB-INF/excel/reservation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
   <si>
     <t>&lt;jx:forEach var="item" items="${list}" varStatus="status"&gt;</t>
   </si>
@@ -205,6 +205,14 @@
   </si>
   <si>
     <t>예약 내역이 존재하지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.cancel_condition}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +291,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -588,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E4:R38"/>
+  <dimension ref="E4:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -599,90 +610,94 @@
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.375" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="25.375" customWidth="1"/>
-    <col min="12" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="25.375" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:18">
-      <c r="E4" s="12" t="s">
+    <row r="4" spans="5:19">
+      <c r="E4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="7" spans="5:18">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="7" spans="5:19">
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="R7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="5:18">
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="5:19">
       <c r="E8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="5:18">
+    <row r="9" spans="5:19">
       <c r="E9" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -691,15 +706,16 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="9"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="5:18">
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="5:19">
       <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -708,56 +724,60 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="9"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="5:18">
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="5:19">
       <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="R11" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="5:18">
+    <row r="12" spans="5:19">
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -766,15 +786,16 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="9"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="5:18">
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="5:19">
       <c r="E13" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -783,56 +804,60 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="9"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="5:18">
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="5:19">
       <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="Q14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="R14" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="5:18">
+    <row r="15" spans="5:19">
       <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -841,15 +866,16 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="9"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="5:18">
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="5:19">
       <c r="E16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -858,395 +884,418 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="9"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="5:17">
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="5:18">
       <c r="E17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="K17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="O17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="P17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="Q17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="R17" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="5:17">
+    <row r="18" spans="5:18">
       <c r="E18" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="5:17">
+    <row r="19" spans="5:18">
       <c r="E19" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="5:17">
+    <row r="20" spans="5:18">
       <c r="E20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="O20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="P20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="Q20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="R20" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="5:17">
+    <row r="21" spans="5:18">
       <c r="E21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="5:17">
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="5:18">
       <c r="E22" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="5:17">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="5:18">
       <c r="E23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="L23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="O23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="P23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="Q23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="R23" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="5:17">
+    <row r="24" spans="5:18">
       <c r="E24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="5:17">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="5:18">
       <c r="E25" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="2"/>
       <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="5:17">
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="5:18">
       <c r="E26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="J26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="K26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="L26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="M26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="N26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="O26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="P26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="Q26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="R26" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="5:17">
+    <row r="27" spans="5:18">
       <c r="E27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="5:17">
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="5:18">
       <c r="E28" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="4"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="5:17">
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="5:18">
       <c r="E29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="I29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="J29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="K29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="L29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="M29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="N29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="O29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="P29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="Q29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="R29" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="5:17">
+    <row r="30" spans="5:18">
       <c r="E30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="5:17">
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="5:18">
       <c r="E31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="4"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="5:17">
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="5:18">
       <c r="E32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="J32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="L32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="M32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="N32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="O32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="P32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="Q32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="R32" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="5:17">
+    <row r="33" spans="5:18">
       <c r="E33" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="5:17">
+    <row r="34" spans="5:18">
       <c r="E34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="5:17">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="5:18">
       <c r="E35" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="5:17">
+    <row r="36" spans="5:18">
       <c r="E36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="5:17">
-      <c r="E37" s="12" t="s">
+    <row r="37" spans="5:18">
+      <c r="E37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="5:17">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="5:18">
       <c r="E38" s="11" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E4:Q4"/>
-    <mergeCell ref="E37:Q37"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="E37:R37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
